--- a/Dev/journal de Travail.xlsx
+++ b/Dev/journal de Travail.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Pre TPI" sheetId="1" r:id="rId1"/>
     <sheet name="Parametre" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -189,16 +192,87 @@
   </si>
   <si>
     <t>génération d'une doc doxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création du wireframe </t>
+  </si>
+  <si>
+    <t>mise en place de l'interface en fonction du wireframe</t>
+  </si>
+  <si>
+    <t>recherches de comment mettre en place le mvc en c#</t>
+  </si>
+  <si>
+    <t>mise en place de l'interface graphique en mvc</t>
+  </si>
+  <si>
+    <t>mise en place de classes test, création des IA facile, moyenne et difficile.</t>
+  </si>
+  <si>
+    <t>documentation des différents points</t>
+  </si>
+  <si>
+    <t>Mise en place de l'interface Informations, correction du code des bases de données</t>
+  </si>
+  <si>
+    <t>j'ai continué à faire la documentation</t>
+  </si>
+  <si>
+    <t>j'ai discuté avec le CdP et nous avons fait un bref point sur la documentation</t>
+  </si>
+  <si>
+    <t>j'ai regardé la solution pour communiqué par le réseau fournie par e CdP, mais cela ne correspond pas à mes besoins, car l'utilisateur doit lancer une commande sur le cmd pour pouvoir communiquer avec quelqu'un d'autre, je regarde une autre solution utilisant les sockets</t>
+  </si>
+  <si>
+    <t>j'ai réussi à faire un mini form qui utilise les thread et les sockets</t>
+  </si>
+  <si>
+    <t>ajout des fonctions dans la classe network</t>
+  </si>
+  <si>
+    <t>resumé de rapport</t>
+  </si>
+  <si>
+    <t>j'ai créé l'interface demandant l'adresse ip de l'adversaire et j'essaie de faire que quand on met l'IP un test de connection est effectué.
+Actuellement je bloque sur les exception que cela génère.</t>
+  </si>
+  <si>
+    <t>tests sur l'implementation des sockets dans le projet, mais celui-ci me fait des erreur qui passent outre le try and catch</t>
+  </si>
+  <si>
+    <t>malade</t>
+  </si>
+  <si>
+    <t>J'ai essayé de mettre un petit timer avant chaque coup de l'ordinateur, mais malheureusement le timer impacte aussi la pose du joueur…., je l'ai donc enlevé</t>
+  </si>
+  <si>
+    <t>mise en place du MVC réussie</t>
+  </si>
+  <si>
+    <t>problème dans l'historique de mon journal de travail, correction de celui-ci, j'avais mon journal en différé à cause des différentes branches.</t>
+  </si>
+  <si>
+    <t>correction de quelques petits points, plus ajout de mes recherches dans la documentation</t>
+  </si>
+  <si>
+    <t>j'arrive à envoyer mon socket en local, mais j'essaie de comprendre pourquoi mon code plante dès qu'il faut envoyer à un autre pc. Via telnet nous arrivons a communiquer avec le server</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement pour le rendu final</t>
+  </si>
+  <si>
+    <t>création du power point, plus réflexion des différents points à mettre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +283,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,35 +316,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -301,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -345,14 +387,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,16 +428,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Pre TPI"/>
+      <sheetName val="Parametre"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E124" totalsRowShown="0">
-  <autoFilter ref="A1:E124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E121" totalsRowShown="0">
+  <autoFilter ref="A1:E121"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="5" name="Type" dataDxfId="3"/>
     <tableColumn id="2" name="Activité" dataDxfId="2"/>
     <tableColumn id="3" name="Temps" dataDxfId="1"/>
     <tableColumn id="4" name="Temps journée" dataDxfId="0">
-      <calculatedColumnFormula>SUM($D2:$D$124)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM($D2:$D$121)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
@@ -669,10 +723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +738,7 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -701,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43500</v>
       </c>
@@ -709,136 +763,143 @@
       <c r="C2" s="9"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11">
         <v>6.25E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="18">
         <f>SUM($D$3:$D3)</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43501</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="18">
         <f>SUM($D$3:$D5)</f>
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43502</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="18">
+        <f>SUM($D$3:$D6)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="18">
         <f>SUM($D$3:$D7)</f>
         <v>0.1423611111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="18">
         <f>SUM($D$3:$D8)</f>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43503</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="18">
+        <f>SUM($D$3:$D9)</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="18">
         <f>SUM($D$3:$D10)</f>
         <v>0.23958333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43504</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="18">
+        <f>SUM($D$3:$D11)</f>
+        <v>0.23958333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="18">
         <f>SUM($D$3:$D12)</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -848,12 +909,12 @@
       <c r="D13" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="18">
         <f>SUM($D$3:$D13)</f>
         <v>0.30208333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -863,21 +924,24 @@
       <c r="D14" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="18">
         <f>SUM($D$3:$D14)</f>
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43507</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="18">
+        <f>SUM($D$3:$D15)</f>
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -887,7 +951,7 @@
       <c r="D16" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="18">
         <f>SUM($D$3:$D16)</f>
         <v>0.375</v>
       </c>
@@ -902,159 +966,174 @@
       <c r="D17" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="18">
         <f>SUM($D$3:$D17)</f>
         <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18">
+        <f>SUM($D$3:$D18)</f>
+        <v>0.42708333333333331</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E19" s="1">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="E19" s="18">
         <f>SUM($D$3:$D19)</f>
-        <v>0.45833333333333331</v>
+        <v>0.46527777777777773</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E20" s="1">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="E20" s="18">
         <f>SUM($D$3:$D20)</f>
         <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18">
+        <f>SUM($D$3:$D21)</f>
+        <v>0.48958333333333331</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="18">
         <f>SUM($D$3:$D22)</f>
         <v>0.52083333333333326</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <f>SUM($D$3:$D23)</f>
+        <v>0.55208333333333326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>43510</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18">
+        <f>SUM($D$3:$D24)</f>
+        <v>0.55208333333333326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM($D$3:$D25)</f>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>43511</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18">
+        <f>SUM($D$3:$D26)</f>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D27" s="2">
         <v>0.17708333333333334</v>
       </c>
-      <c r="E24" s="1">
-        <f>SUM($D$3:$D24)</f>
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>43514</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <f>SUM($D$3:$D26)</f>
-        <v>0.71180555555555547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="E27" s="18">
         <f>SUM($D$3:$D27)</f>
-        <v>0.7534722222222221</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>43516</v>
+        <v>43514</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="18">
+        <f>SUM($D$3:$D28)</f>
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E29" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E29" s="18">
         <f>SUM($D$3:$D29)</f>
-        <v>0.7847222222222221</v>
+        <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,219 +1141,233 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E30" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E30" s="18">
         <f>SUM($D$3:$D30)</f>
         <v>0.8159722222222221</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>43517</v>
+        <v>43515</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="18">
+        <f>SUM($D$3:$D31)</f>
+        <v>0.8159722222222221</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E32" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E32" s="18">
         <f>SUM($D$3:$D32)</f>
+        <v>0.83680555555555547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="18">
+        <f>SUM($D$3:$D33)</f>
         <v>0.8784722222222221</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>43528</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="A34" s="12">
+        <v>43516</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="18">
         <f>SUM($D$3:$D34)</f>
+        <v>0.8784722222222221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <f>SUM($D$3:$D35)</f>
+        <v>0.9097222222222221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E36" s="18">
+        <f>SUM($D$3:$D36)</f>
         <v>0.9409722222222221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>43529</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <f>SUM($D$3:$D36)</f>
-        <v>1.0034722222222221</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>43529</v>
+        <v>43517</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="18">
+        <f>SUM($D$3:$D37)</f>
+        <v>0.9409722222222221</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E38" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E38" s="18">
         <f>SUM($D$3:$D38)</f>
-        <v>1.0347222222222221</v>
+        <v>1.0034722222222221</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="A39" s="12">
+        <v>43518</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="18">
         <f>SUM($D$3:$D39)</f>
-        <v>1.0486111111111109</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>1.0034722222222221</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E40" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="E40" s="18">
         <f>SUM($D$3:$D40)</f>
-        <v>1.0590277777777777</v>
+        <v>1.2222222222222221</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="A41" s="12">
+        <v>43528</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="18">
         <f>SUM($D$3:$D41)</f>
-        <v>1.0659722222222221</v>
+        <v>1.2222222222222221</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>43530</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E42" s="18">
+        <f>SUM($D$3:$D42)</f>
+        <v>1.2847222222222221</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="A43" s="12">
+        <v>43529</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="18">
         <f>SUM($D$3:$D43)</f>
-        <v>1.0972222222222221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2847222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="18">
         <f>SUM($D$3:$D44)</f>
-        <v>1.1597222222222221</v>
+        <v>1.3472222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>43531</v>
+        <v>43529</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="E45" s="18">
+        <f>SUM($D$3:$D45)</f>
+        <v>1.3472222222222221</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
-        <v>9.375E-2</v>
-      </c>
-      <c r="E46" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E46" s="18">
         <f>SUM($D$3:$D46)</f>
-        <v>1.2534722222222221</v>
+        <v>1.3784722222222221</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,92 +1375,99 @@
         <v>7</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E47" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E47" s="18">
         <f>SUM($D$3:$D47)</f>
-        <v>1.3159722222222221</v>
-      </c>
+        <v>1.3923611111111109</v>
+      </c>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E48" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E48" s="18">
         <f>SUM($D$3:$D48)</f>
-        <v>1.3784722222222221</v>
+        <v>1.4027777777777777</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>43533</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E49" s="18">
+        <f>SUM($D$3:$D49)</f>
+        <v>1.4097222222222221</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="A50" s="12">
+        <v>43530</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="18">
         <f>SUM($D$3:$D50)</f>
-        <v>1.3993055555555554</v>
+        <v>1.4097222222222221</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="E51" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E51" s="18">
         <f>SUM($D$3:$D51)</f>
-        <v>1.4374999999999998</v>
+        <v>1.4409722222222221</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>43535</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E52" s="18">
+        <f>SUM($D$3:$D52)</f>
+        <v>1.5034722222222221</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="A53" s="12">
+        <v>43531</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="18">
         <f>SUM($D$3:$D53)</f>
-        <v>1.4444444444444442</v>
+        <v>1.5034722222222221</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,14 +1475,14 @@
         <v>5</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="E54" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E54" s="18">
         <f>SUM($D$3:$D54)</f>
-        <v>1.4791666666666665</v>
+        <v>1.5972222222222221</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,539 +1490,836 @@
         <v>7</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="E55" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E55" s="18">
         <f>SUM($D$3:$D55)</f>
-        <v>1.5069444444444442</v>
+        <v>1.6597222222222221</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>43536</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E56" s="18">
+        <f>SUM($D$3:$D56)</f>
+        <v>1.7222222222222221</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="A57" s="12">
+        <v>43532</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="18">
         <f>SUM($D$3:$D57)</f>
-        <v>1.5694444444444442</v>
+        <v>1.7222222222222221</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>43537</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="E58" s="18">
+        <f>SUM($D$3:$D58)</f>
+        <v>1.8472222222222221</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="18">
         <f>SUM($D$3:$D59)</f>
-        <v>1.6319444444444442</v>
+        <v>1.9097222222222221</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>43538</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E60" s="18">
+        <f>SUM($D$3:$D60)</f>
+        <v>1.9305555555555554</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D61" s="2">
-        <v>9.375E-2</v>
-      </c>
-      <c r="E61" s="1">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="E61" s="18">
         <f>SUM($D$3:$D61)</f>
-        <v>1.7256944444444442</v>
+        <v>1.9687499999999998</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>43539</v>
+        <v>43535</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="E62" s="18">
+        <f>SUM($D$3:$D62)</f>
+        <v>1.9687499999999998</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E63" s="1">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E63" s="18">
         <f>SUM($D$3:$D63)</f>
-        <v>1.9340277777777775</v>
+        <v>1.9756944444444442</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E64" s="1">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E64" s="18">
         <f>SUM($D$3:$D64)</f>
-        <v>1.9444444444444442</v>
+        <v>2.0104166666666665</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>43541</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E65" s="18">
+        <f>SUM($D$3:$D65)</f>
+        <v>2.0381944444444442</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="A66" s="12">
+        <v>43536</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="18">
+        <f>SUM($D$3:$D66)</f>
+        <v>2.0381944444444442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E66" s="1">
-        <f>SUM($D$3:$D66)</f>
-        <v>2.0069444444444442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>43542</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="E67" s="18">
+        <f>SUM($D$3:$D67)</f>
+        <v>2.1006944444444442</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="A68" s="12">
+        <v>43537</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="18">
+        <f>SUM($D$3:$D68)</f>
+        <v>2.1006944444444442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E68" s="1">
-        <f>SUM($D$3:$D68)</f>
-        <v>2.0694444444444442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>43544</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="E69" s="18">
+        <f>SUM($D$3:$D69)</f>
+        <v>2.1631944444444442</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="A70" s="12">
+        <v>43538</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="18">
         <f>SUM($D$3:$D70)</f>
-        <v>2.0868055555555554</v>
+        <v>2.1631944444444442</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E71" s="18">
+        <f>SUM($D$3:$D71)</f>
+        <v>2.2569444444444442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>43539</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="18">
+        <f>SUM($D$3:$D72)</f>
+        <v>2.2569444444444442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E73" s="18">
+        <f>SUM($D$3:$D73)</f>
+        <v>2.4652777777777777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E74" s="18">
+        <f>SUM($D$3:$D74)</f>
+        <v>2.4756944444444442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>43541</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="18">
+        <f>SUM($D$3:$D75)</f>
+        <v>2.4756944444444442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E76" s="18">
+        <f>SUM($D$3:$D76)</f>
+        <v>2.5381944444444442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>43542</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="18">
+        <f>SUM($D$3:$D77)</f>
+        <v>2.5381944444444442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E78" s="18">
+        <f>SUM($D$3:$D78)</f>
+        <v>2.6006944444444442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>43543</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="18">
+        <f>SUM($D$3:$D79)</f>
+        <v>2.6006944444444442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E80" s="18">
+        <f>SUM($D$3:$D80)</f>
+        <v>2.6631944444444442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>43544</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="18">
+        <f>SUM($D$3:$D81)</f>
+        <v>2.6631944444444442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E82" s="18">
+        <f>SUM($D$3:$D82)</f>
+        <v>2.6805555555555554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D83" s="2">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="E71" s="1">
-        <f>SUM($D$3:$D71)</f>
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="E83" s="18">
+        <f>SUM($D$3:$D83)</f>
+        <v>2.71875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D84" s="2">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E72" s="1">
-        <f>SUM($D$3:$D72)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="1">
-        <f>SUM($D$3:$D73)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="1">
-        <f>SUM($D$3:$D74)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="1">
-        <f>SUM($D$3:$D75)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="1">
-        <f>SUM($D$3:$D76)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="1">
-        <f>SUM($D$3:$D77)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="1">
-        <f>SUM($D$3:$D78)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="1">
-        <f>SUM($D$3:$D79)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="1">
-        <f>SUM($D$3:$D80)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="1">
-        <f>SUM($D$3:$D81)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="1">
-        <f>SUM($D$3:$D82)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1">
-        <f>SUM($D$3:$D83)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1">
+      <c r="E84" s="18">
         <f>SUM($D$3:$D84)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1">
+        <v>2.7256944444444446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>43545</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="18">
         <f>SUM($D$3:$D85)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1">
+        <v>2.7256944444444446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E86" s="18">
         <f>SUM($D$3:$D86)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1">
+        <v>2.7881944444444446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>43546</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="18">
         <f>SUM($D$3:$D87)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="1">
+        <v>2.7881944444444446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E88" s="18">
         <f>SUM($D$3:$D88)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="1">
+        <v>2.7951388888888893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E89" s="18">
         <f>SUM($D$3:$D89)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="1">
+        <v>2.8506944444444446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>43549</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="18">
         <f>SUM($D$3:$D90)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="1">
+        <v>2.8506944444444446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E91" s="18">
         <f>SUM($D$3:$D91)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="1">
+        <v>2.9131944444444446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>43550</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="18">
         <f>SUM($D$3:$D92)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="1">
+        <v>2.9131944444444446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E93" s="18">
         <f>SUM($D$3:$D93)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="1">
+        <v>2.9444444444444446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E94" s="18">
         <f>SUM($D$3:$D94)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1">
+        <v>2.9756944444444446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>43551</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="18">
         <f>SUM($D$3:$D95)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1">
+        <v>2.9756944444444446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E96" s="18">
         <f>SUM($D$3:$D96)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="1">
+        <v>3.0381944444444446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>43552</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="18">
         <f>SUM($D$3:$D97)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="1">
+        <v>3.0381944444444446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="2">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E98" s="18">
         <f>SUM($D$3:$D98)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1">
+        <v>3.1319444444444446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>43553</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="18">
         <f>SUM($D$3:$D99)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="1">
+        <v>3.1319444444444446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="E100" s="18">
         <f>SUM($D$3:$D100)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="1">
+        <v>3.3506944444444446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>43556</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="18">
         <f>SUM($D$3:$D101)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="1">
+        <v>3.3506944444444446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E102" s="18">
         <f>SUM($D$3:$D102)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="1">
+        <v>3.3819444444444446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>43557</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="18">
         <f>SUM($D$3:$D103)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="1">
+        <v>3.3819444444444446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E104" s="18">
         <f>SUM($D$3:$D104)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="1">
+        <v>3.3958333333333335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E105" s="18">
         <f>SUM($D$3:$D105)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="1">
+        <v>3.4097222222222223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E106" s="18">
         <f>SUM($D$3:$D106)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="1">
+        <v>3.4513888888888888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>43558</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="18">
         <f>SUM($D$3:$D107)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="1">
+        <v>3.4513888888888888</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E108" s="18">
         <f>SUM($D$3:$D108)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="1">
+        <v>3.4618055555555554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E109" s="18">
         <f>SUM($D$3:$D109)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="1">
+        <v>3.5138888888888888</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="18">
         <f>SUM($D$3:$D110)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="1">
+        <v>3.5138888888888888</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="18">
         <f>SUM($D$3:$D111)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="1">
+        <v>3.5138888888888888</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="18">
         <f>SUM($D$3:$D112)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="1">
+      <c r="E113" s="18">
         <f>SUM($D$3:$D113)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1">
+      <c r="E114" s="18">
         <f>SUM($D$3:$D114)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="1">
+      <c r="E115" s="18">
         <f>SUM($D$3:$D115)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="1">
+      <c r="E116" s="18">
         <f>SUM($D$3:$D116)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="1">
+      <c r="E117" s="18">
         <f>SUM($D$3:$D117)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="1">
+      <c r="E118" s="18">
         <f>SUM($D$3:$D118)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="1">
+      <c r="E119" s="18">
         <f>SUM($D$3:$D119)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="1">
+      <c r="E120" s="18">
         <f>SUM($D$3:$D120)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="1">
+      <c r="E121" s="18">
         <f>SUM($D$3:$D121)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="1">
-        <f>SUM($D$3:$D122)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="1">
-        <f>SUM($D$3:$D123)</f>
-        <v>2.1319444444444446</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="1">
-        <f>SUM($D$3:$D124)</f>
-        <v>2.1319444444444446</v>
+        <v>3.5138888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -1933,12 +2330,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Parametre!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B2946</xm:sqref>
+          <xm:sqref>B2:B18 B60:B84 B96 B86 B88:B89 B91 B93:B94 B98 B100 B21:B57 B102 B104:B106 B108:B2943</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Diogo.VIEIRA-FERREIR\OneDrive - CPNV\pre-tpi\Morpion_Pre-TPI\[journal de Travail3.xlsx]Parametre'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B85 B87 B90 B92 B95 B97 B99 B101 B103 B107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Dev/journal de Travail.xlsx
+++ b/Dev/journal de Travail.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5400" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Pre TPI" sheetId="1" r:id="rId1"/>
-    <sheet name="Parametre" sheetId="2" r:id="rId2"/>
+    <sheet name="Parametres" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Implémentation</t>
-  </si>
-  <si>
-    <t>Tests</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>création du power point, plus réflexion des différents points à mettre</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>correction de plusieurs erreurs dans la documentation et ajout d'informations + jdt</t>
   </si>
 </sst>
 </file>
@@ -428,6 +431,1066 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Plannification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-BE8A-44BE-9345-03979782BFAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-BE8A-44BE-9345-03979782BFAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-BE8A-44BE-9345-03979782BFAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-BE8A-44BE-9345-03979782BFAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15329634303932729"/>
+                  <c:y val="0.13403138766946168"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-BE8A-44BE-9345-03979782BFAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5556033015146963E-3"/>
+                  <c:y val="-0.21742379547689283"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-BE8A-44BE-9345-03979782BFAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14235873275319033"/>
+                  <c:y val="4.0433264426017544E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-BE8A-44BE-9345-03979782BFAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9702108127136632E-2"/>
+                  <c:y val="0.17527946174869735"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-BE8A-44BE-9345-03979782BFAC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Parametres!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analyse</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Implémentation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Parametres!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>[hh]:mm:ss</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51388888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4826388888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE8A-44BE-9345-03979782BFAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68532893388326455"/>
+          <c:y val="0.38709838261367774"/>
+          <c:w val="0.21113943807839877"/>
+          <c:h val="0.26548858383852464"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -444,15 +1507,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E121" totalsRowShown="0">
-  <autoFilter ref="A1:E121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E111" totalsRowShown="0">
+  <autoFilter ref="A1:E111"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date" dataDxfId="4"/>
     <tableColumn id="5" name="Type" dataDxfId="3"/>
     <tableColumn id="2" name="Activité" dataDxfId="2"/>
     <tableColumn id="3" name="Temps" dataDxfId="1"/>
     <tableColumn id="4" name="Temps journée" dataDxfId="0">
-      <calculatedColumnFormula>SUM($D2:$D$121)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM($D2:$D$111)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
@@ -723,10 +1786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="E1" sqref="A1:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11">
         <v>6.25E-2</v>
@@ -790,10 +1853,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>3.125E-2</v>
@@ -810,17 +1873,14 @@
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="18">
-        <f>SUM($D$3:$D6)</f>
-        <v>9.375E-2</v>
-      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>4.8611111111111112E-2</v>
@@ -835,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>1.3888888888888888E-2</v>
@@ -852,17 +1912,14 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="18">
-        <f>SUM($D$3:$D9)</f>
-        <v>0.15625</v>
-      </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>8.3333333333333329E-2</v>
@@ -879,17 +1936,14 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="18">
-        <f>SUM($D$3:$D11)</f>
-        <v>0.23958333333333331</v>
-      </c>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>3.125E-2</v>
@@ -904,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>3.125E-2</v>
@@ -916,10 +1970,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>6.25E-2</v>
@@ -936,17 +1990,14 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="18">
-        <f>SUM($D$3:$D15)</f>
-        <v>0.36458333333333331</v>
-      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>1.0416666666666666E-2</v>
@@ -961,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>5.2083333333333336E-2</v>
@@ -978,17 +2029,14 @@
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="18">
-        <f>SUM($D$3:$D18)</f>
-        <v>0.42708333333333331</v>
-      </c>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
         <v>3.8194444444444441E-2</v>
@@ -1003,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
         <v>2.4305555555555556E-2</v>
@@ -1020,17 +2068,14 @@
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="18">
-        <f>SUM($D$3:$D21)</f>
-        <v>0.48958333333333331</v>
-      </c>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>3.125E-2</v>
@@ -1045,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>3.125E-2</v>
@@ -1062,17 +2107,14 @@
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18">
-        <f>SUM($D$3:$D24)</f>
-        <v>0.55208333333333326</v>
-      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
         <v>3.125E-2</v>
@@ -1089,17 +2131,14 @@
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="18">
-        <f>SUM($D$3:$D26)</f>
-        <v>0.58333333333333326</v>
-      </c>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>0.17708333333333334</v>
@@ -1116,17 +2155,14 @@
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="18">
-        <f>SUM($D$3:$D28)</f>
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2">
         <v>1.3888888888888888E-2</v>
@@ -1141,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
         <v>4.1666666666666664E-2</v>
@@ -1158,17 +2194,14 @@
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="18">
-        <f>SUM($D$3:$D31)</f>
-        <v>0.8159722222222221</v>
-      </c>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2">
         <v>2.0833333333333332E-2</v>
@@ -1183,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2">
         <v>4.1666666666666664E-2</v>
@@ -1200,17 +2233,14 @@
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="18">
-        <f>SUM($D$3:$D34)</f>
-        <v>0.8784722222222221</v>
-      </c>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2">
         <v>3.125E-2</v>
@@ -1225,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>3.125E-2</v>
@@ -1242,17 +2272,14 @@
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="18">
-        <f>SUM($D$3:$D37)</f>
-        <v>0.9409722222222221</v>
-      </c>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>6.25E-2</v>
@@ -1269,17 +2296,14 @@
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="18">
-        <f>SUM($D$3:$D39)</f>
-        <v>1.0034722222222221</v>
-      </c>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2">
         <v>0.21875</v>
@@ -1296,17 +2320,14 @@
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="18">
-        <f>SUM($D$3:$D41)</f>
-        <v>1.2222222222222221</v>
-      </c>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>6.25E-2</v>
@@ -1323,17 +2344,14 @@
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="18">
-        <f>SUM($D$3:$D43)</f>
-        <v>1.2847222222222221</v>
-      </c>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>6.25E-2</v>
@@ -1350,17 +2368,14 @@
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="18">
-        <f>SUM($D$3:$D45)</f>
-        <v>1.3472222222222221</v>
-      </c>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>3.125E-2</v>
@@ -1375,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>1.3888888888888888E-2</v>
@@ -1391,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>1.0416666666666666E-2</v>
@@ -1406,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1423,17 +2438,14 @@
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="18">
-        <f>SUM($D$3:$D50)</f>
-        <v>1.4097222222222221</v>
-      </c>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>3.125E-2</v>
@@ -1448,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2">
         <v>6.25E-2</v>
@@ -1465,17 +2477,14 @@
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="18">
-        <f>SUM($D$3:$D53)</f>
-        <v>1.5034722222222221</v>
-      </c>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2">
         <v>9.375E-2</v>
@@ -1490,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2">
         <v>6.25E-2</v>
@@ -1505,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2">
         <v>6.25E-2</v>
@@ -1522,17 +2531,14 @@
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="18">
-        <f>SUM($D$3:$D57)</f>
-        <v>1.7222222222222221</v>
-      </c>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2">
         <v>0.125</v>
@@ -1547,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="2">
         <v>6.25E-2</v>
@@ -1562,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2">
         <v>2.0833333333333332E-2</v>
@@ -1577,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2">
         <v>3.8194444444444441E-2</v>
@@ -1594,17 +2600,14 @@
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="18">
-        <f>SUM($D$3:$D62)</f>
-        <v>1.9687499999999998</v>
-      </c>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1619,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2">
         <v>3.4722222222222224E-2</v>
@@ -1634,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2">
         <v>2.7777777777777776E-2</v>
@@ -1651,17 +2654,14 @@
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="18">
-        <f>SUM($D$3:$D66)</f>
-        <v>2.0381944444444442</v>
-      </c>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2">
         <v>6.25E-2</v>
@@ -1678,17 +2678,14 @@
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="18">
-        <f>SUM($D$3:$D68)</f>
-        <v>2.1006944444444442</v>
-      </c>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="2">
         <v>6.25E-2</v>
@@ -1705,17 +2702,14 @@
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="18">
-        <f>SUM($D$3:$D70)</f>
-        <v>2.1631944444444442</v>
-      </c>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="2">
         <v>9.375E-2</v>
@@ -1732,17 +2726,14 @@
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="18">
-        <f>SUM($D$3:$D72)</f>
-        <v>2.2569444444444442</v>
-      </c>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2">
         <v>0.20833333333333334</v>
@@ -1754,10 +2745,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" s="2">
         <v>1.0416666666666666E-2</v>
@@ -1774,17 +2765,14 @@
       <c r="B75" s="12"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="18">
-        <f>SUM($D$3:$D75)</f>
-        <v>2.4756944444444442</v>
-      </c>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="2">
         <v>6.25E-2</v>
@@ -1801,17 +2789,14 @@
       <c r="B77" s="12"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="18">
-        <f>SUM($D$3:$D77)</f>
-        <v>2.5381944444444442</v>
-      </c>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="2">
         <v>6.25E-2</v>
@@ -1828,17 +2813,14 @@
       <c r="B79" s="12"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="18">
-        <f>SUM($D$3:$D79)</f>
-        <v>2.6006944444444442</v>
-      </c>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D80" s="2">
         <v>6.25E-2</v>
@@ -1855,17 +2837,14 @@
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="18">
-        <f>SUM($D$3:$D81)</f>
-        <v>2.6631944444444442</v>
-      </c>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" s="2">
         <v>1.7361111111111112E-2</v>
@@ -1877,10 +2856,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="2">
         <v>3.8194444444444441E-2</v>
@@ -1895,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1912,17 +2891,14 @@
       <c r="B85" s="12"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="18">
-        <f>SUM($D$3:$D85)</f>
-        <v>2.7256944444444446</v>
-      </c>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D86" s="2">
         <v>6.25E-2</v>
@@ -1939,17 +2915,14 @@
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="18">
-        <f>SUM($D$3:$D87)</f>
-        <v>2.7881944444444446</v>
-      </c>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D88" s="2">
         <v>6.9444444444444441E-3</v>
@@ -1964,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="2">
         <v>5.5555555555555552E-2</v>
@@ -1981,17 +2954,14 @@
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
-      <c r="E90" s="18">
-        <f>SUM($D$3:$D90)</f>
-        <v>2.8506944444444446</v>
-      </c>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="2">
         <v>6.25E-2</v>
@@ -2008,17 +2978,14 @@
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
       <c r="D92" s="14"/>
-      <c r="E92" s="18">
-        <f>SUM($D$3:$D92)</f>
-        <v>2.9131944444444446</v>
-      </c>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D93" s="2">
         <v>3.125E-2</v>
@@ -2033,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D94" s="2">
         <v>3.125E-2</v>
@@ -2050,17 +3017,14 @@
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
       <c r="D95" s="14"/>
-      <c r="E95" s="18">
-        <f>SUM($D$3:$D95)</f>
-        <v>2.9756944444444446</v>
-      </c>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D96" s="2">
         <v>6.25E-2</v>
@@ -2077,17 +3041,14 @@
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
       <c r="D97" s="14"/>
-      <c r="E97" s="18">
-        <f>SUM($D$3:$D97)</f>
-        <v>3.0381944444444446</v>
-      </c>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" s="2">
         <v>9.375E-2</v>
@@ -2104,17 +3065,14 @@
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="18">
-        <f>SUM($D$3:$D99)</f>
-        <v>3.1319444444444446</v>
-      </c>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="2">
         <v>0.21875</v>
@@ -2131,17 +3089,14 @@
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="18">
-        <f>SUM($D$3:$D101)</f>
-        <v>3.3506944444444446</v>
-      </c>
+      <c r="E101" s="14"/>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="2">
         <v>3.125E-2</v>
@@ -2158,17 +3113,14 @@
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="18">
-        <f>SUM($D$3:$D103)</f>
-        <v>3.3819444444444446</v>
-      </c>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2">
         <v>1.3888888888888888E-2</v>
@@ -2180,10 +3132,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2">
         <v>1.3888888888888888E-2</v>
@@ -2198,7 +3150,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" s="2">
         <v>4.1666666666666664E-2</v>
@@ -2215,17 +3167,14 @@
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="18">
-        <f>SUM($D$3:$D107)</f>
-        <v>3.4513888888888888</v>
-      </c>
+      <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" s="2">
         <v>1.0416666666666666E-2</v>
@@ -2237,10 +3186,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109" s="2">
         <v>5.2083333333333336E-2</v>
@@ -2251,75 +3200,27 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="18">
-        <f>SUM($D$3:$D110)</f>
-        <v>3.5138888888888888</v>
-      </c>
+      <c r="A110" s="12">
+        <v>43559</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="2">
+        <v>6.25E-2</v>
+      </c>
       <c r="E111" s="18">
         <f>SUM($D$3:$D111)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="18">
-        <f>SUM($D$3:$D112)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="18">
-        <f>SUM($D$3:$D113)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="18">
-        <f>SUM($D$3:$D114)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="18">
-        <f>SUM($D$3:$D115)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="18">
-        <f>SUM($D$3:$D116)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="18">
-        <f>SUM($D$3:$D117)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="18">
-        <f>SUM($D$3:$D118)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="18">
-        <f>SUM($D$3:$D119)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="18">
-        <f>SUM($D$3:$D120)</f>
-        <v>3.5138888888888888</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="18">
-        <f>SUM($D$3:$D121)</f>
-        <v>3.5138888888888888</v>
+        <v>3.5763888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -2330,18 +3231,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Parametre!$A$2:$A$6</xm:f>
+            <xm:f>Parametres!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B18 B60:B84 B96 B86 B88:B89 B91 B93:B94 B98 B100 B21:B57 B102 B104:B106 B108:B2943</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\Diogo.VIEIRA-FERREIR\OneDrive - CPNV\pre-tpi\Morpion_Pre-TPI\[journal de Travail3.xlsx]Parametre'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B85 B87 B90 B92 B95 B97 B99 B101 B103 B107</xm:sqref>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2351,45 +3246,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18">
+        <f>SUMIF(Table1[Type],Parametres!A2,Table1[Temps])</f>
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <f>SUMIF(Table1[Type],Parametres!A3,Table1[Temps])</f>
+        <v>1.4305555555555554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <f>SUMIF(Table1[Type],Parametres!A4,Table1[Temps])</f>
+        <v>0.51388888888888884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="18">
+        <f>SUMIF(Table1[Type],Parametres!A5,Table1[Temps])</f>
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>10</v>
+      <c r="B6" s="18">
+        <f>SUMIF(Table1[Type],Parametres!A6,Table1[Temps])</f>
+        <v>0.21875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>